--- a/Financial Analysis/Models (Retail) {2024}.xlsx
+++ b/Financial Analysis/Models (Retail) {2024}.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1DA3FA-1949-48A9-96FE-15131F70391D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E31180-44CD-46D7-A475-076D3915B937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8DE2C096-8306-4635-BAD7-DE2F1A3674DA}"/>
   </bookViews>
@@ -3446,7 +3446,7 @@
         <v>2.5740421475799219E-2</v>
       </c>
       <c r="Z3" s="7">
-        <f t="shared" ref="W3:AA3" si="1">TRIMMEAN(Z12:Z1048576,80%)</f>
+        <f t="shared" ref="Z3:AA3" si="1">TRIMMEAN(Z12:Z1048576,80%)</f>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AA3" s="7">
